--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail9 Features.xlsx
@@ -4275,7 +4275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4286,29 +4286,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4329,115 +4327,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4454,72 +4442,66 @@
         <v>1.950171028661318e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4416179367860088</v>
+        <v>7.336889864736137e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.105823969285187</v>
+        <v>1.282622598974904e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.336889864736137e-07</v>
+        <v>-0.06273580623827001</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.282622598974904e-06</v>
+        <v>0.07198382445711086</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06273580623827001</v>
+        <v>0.009094191774966363</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07198382445711086</v>
+        <v>1.942033536474347</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.009094191774966363</v>
+        <v>3.462056241113456</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.974559999642444</v>
+        <v>7.715130552007583</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.462056241113456</v>
+        <v>8.336946802572539e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.715130552007583</v>
+        <v>77156223311.83263</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.336946802572539e-19</v>
+        <v>1.560067248612582e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>77156223311.83263</v>
+        <v>4963.053457943907</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.560067248612582e-09</v>
+        <v>1.97733966273192e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4963.053457943907</v>
+        <v>8.978677225614582</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.97733966273192e-05</v>
+        <v>1.447795602303235</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.978677225614582</v>
+        <v>0.001594064890847237</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.447795602303235</v>
+        <v>7.834490601980895</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001594064890847237</v>
+        <v>0.9570146678644849</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.834490601980895</v>
+        <v>0.7053786797360536</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9570146678644849</v>
+        <v>211</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7053786797360536</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>15.66755221014548</v>
       </c>
     </row>
@@ -4534,72 +4516,66 @@
         <v>1.901599043785968e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4311626031401878</v>
+        <v>6.419557382013163e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.158309100966971</v>
+        <v>1.271218899843896e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.419557382013163e-07</v>
+        <v>-0.05628463930254809</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.271218899843896e-06</v>
+        <v>0.04513892822001238</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05628463930254809</v>
+        <v>0.005195635974861374</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04513892822001238</v>
+        <v>1.942693239602648</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005195635974861374</v>
+        <v>3.138751440300535</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.97383177849846</v>
+        <v>6.844422286604723</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.138751440300535</v>
+        <v>1.274816201605866e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.844422286604723</v>
+        <v>50089728487.4961</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.274816201605866e-18</v>
+        <v>2.405657840922298e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>50089728487.4961</v>
+        <v>3198.489500777303</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.405657840922298e-09</v>
+        <v>4.386257594491149e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3198.489500777303</v>
+        <v>9.297774610150078</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.386257594491149e-05</v>
+        <v>1.595230704667526</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.297774610150078</v>
+        <v>0.003791858839936495</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.595230704667526</v>
+        <v>7.113807578086861</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.003791858839936495</v>
+        <v>0.9582227413620854</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.113807578086861</v>
+        <v>0.7203416528195289</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9582227413620854</v>
+        <v>169</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7203416528195289</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.67358316862277</v>
       </c>
     </row>
@@ -4614,72 +4590,66 @@
         <v>1.873457654552681e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4577428881500999</v>
+        <v>5.898637479553292e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.114721666566597</v>
+        <v>1.261004381709876e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.898637479553292e-07</v>
+        <v>-0.05248341571848358</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.261004381709876e-06</v>
+        <v>0.03221445041210819</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05248341571848358</v>
+        <v>0.003789888950536899</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03221445041210819</v>
+        <v>1.94420490962485</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.003789888950536899</v>
+        <v>2.957343442532228</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.973883780978889</v>
+        <v>6.617901162923256</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.957343442532228</v>
+        <v>2.271531093956962e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.617901162923256</v>
+        <v>28852684558.24176</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.271531093956962e-18</v>
+        <v>4.185601915205169e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>28852684558.24176</v>
+        <v>1890.998313239471</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.185601915205169e-09</v>
+        <v>8.547161342628535e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1890.998313239471</v>
+        <v>10.88824309515438</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.547161342628535e-05</v>
+        <v>1.358678460083665</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.88824309515438</v>
+        <v>0.01013298778602663</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.358678460083665</v>
+        <v>6.047760443392301</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01013298778602663</v>
+        <v>0.9593113049810446</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.047760443392301</v>
+        <v>0.79555371716109</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9593113049810446</v>
+        <v>120</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.79555371716109</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.382778890523751</v>
       </c>
     </row>
@@ -4694,72 +4664,66 @@
         <v>1.85264563594109e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4969790318741223</v>
+        <v>5.856840793352346e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.040005214562133</v>
+        <v>1.251365893665672e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.856840793352346e-07</v>
+        <v>-0.05146472042536045</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.251365893665672e-06</v>
+        <v>0.03104519675474466</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05146472042536045</v>
+        <v>0.003612683666905225</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03104519675474466</v>
+        <v>1.939547924050914</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003612683666905225</v>
+        <v>2.899829949143817</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.966072963007932</v>
+        <v>5.579364474084041</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.899829949143817</v>
+        <v>3.896612169506831e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.579364474084041</v>
+        <v>17264360379.22134</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.896612169506831e-18</v>
+        <v>6.994432608835768e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>17264360379.22134</v>
+        <v>1161.416972831078</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.994432608835768e-09</v>
+        <v>0.0001207437829764816</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1161.416972831078</v>
+        <v>12.42053708042447</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001207437829764816</v>
+        <v>1.164376471402588</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.42053708042447</v>
+        <v>0.01862711217135831</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.164376471402588</v>
+        <v>5.182970224870667</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01862711217135831</v>
+        <v>0.9599469673264415</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.182970224870667</v>
+        <v>0.8076722790972939</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9599469673264415</v>
+        <v>82</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8076722790972939</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.269395126238823</v>
       </c>
     </row>
@@ -4774,72 +4738,66 @@
         <v>1.82947835752965e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5366940341260467</v>
+        <v>5.886895798817236e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9572791872455619</v>
+        <v>1.241786593215121e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.886895798817236e-07</v>
+        <v>-0.05282116223762073</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.241786593215121e-06</v>
+        <v>0.02992935192209266</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05282116223762073</v>
+        <v>0.003686025431492236</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.02992935192209266</v>
+        <v>1.945270923725712</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003686025431492236</v>
+        <v>2.391249828556105</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.967633890367325</v>
+        <v>5.499355210591457</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.391249828556105</v>
+        <v>7.428512597001854e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.499355210591457</v>
+        <v>9284409848.453844</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.428512597001854e-18</v>
+        <v>1.300902309534743e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>9284409848.453844</v>
+        <v>640.3397635846784</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.300902309534743e-08</v>
+        <v>0.0001485208292928706</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>640.3397635846784</v>
+        <v>13.24603564103708</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001485208292928706</v>
+        <v>1.081823313219642</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.24603564103708</v>
+        <v>0.02605908749506317</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.081823313219642</v>
+        <v>4.549398817894608</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02605908749506317</v>
+        <v>0.9611072446200578</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.549398817894608</v>
+        <v>0.8903672973365332</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9611072446200578</v>
+        <v>69</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8903672973365332</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.746478844386415</v>
       </c>
     </row>
@@ -4854,72 +4812,66 @@
         <v>1.798873107314907e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5702859026029307</v>
+        <v>5.905940976129581e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.879968823427062</v>
+        <v>1.232033474616967e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.905940976129581e-07</v>
+        <v>-0.0545931793096316</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.232033474616967e-06</v>
+        <v>0.02834146048358537</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0545931793096316</v>
+        <v>0.003784003817842322</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.02834146048358537</v>
+        <v>1.944656694925362</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003784003817842322</v>
+        <v>2.362392756852948</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.965244441200924</v>
+        <v>4.843783065818878</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.362392756852948</v>
+        <v>1.272319368876497e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.843783065818878</v>
+        <v>5449909313.210292</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.272319368876497e-17</v>
+        <v>2.226122627715822e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5449909313.210292</v>
+        <v>377.8980839462423</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.226122627715822e-08</v>
+        <v>0.0001755495424771033</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>377.8980839462423</v>
+        <v>13.67937041541989</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001755495424771033</v>
+        <v>1.047122058912513</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.67937041541989</v>
+        <v>0.03284973885057352</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.047122058912513</v>
+        <v>3.990902414408484</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03284973885057352</v>
+        <v>0.9620167352012328</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.990902414408484</v>
+        <v>0.922910039969713</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9620167352012328</v>
+        <v>54</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.922910039969713</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.329967479671688</v>
       </c>
     </row>
@@ -5296,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556132961950398</v>
+        <v>1.56995750677915</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.509425015533267</v>
@@ -5385,7 +5337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.597931491713811</v>
+        <v>1.612254060902686</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.323890207503303</v>
@@ -5474,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.612430995878718</v>
+        <v>1.618564275723205</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.351852193190008</v>
@@ -5563,7 +5515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616227158446853</v>
+        <v>1.623047173706131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.353788932714253</v>
@@ -5652,7 +5604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.658313867700207</v>
+        <v>1.660790965479731</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.261879417645484</v>
@@ -5741,7 +5693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.716163664128886</v>
+        <v>1.710650412409446</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.924745710792935</v>
@@ -5830,7 +5782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.709837378321957</v>
+        <v>1.699030964914271</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.738170788915413</v>
@@ -5919,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.690648219886441</v>
+        <v>1.691455036361549</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.817022120454679</v>
@@ -6008,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.713940890998998</v>
+        <v>1.711055977243307</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.879970831953742</v>
@@ -6097,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666324866777529</v>
+        <v>1.66678891124113</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.311537799840383</v>
@@ -6186,7 +6138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653473101742496</v>
+        <v>1.655886024357242</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.402917980314394</v>
@@ -6275,7 +6227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511913560543243</v>
+        <v>1.524760787226603</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.886859051500041</v>
@@ -6364,7 +6316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505857292941788</v>
+        <v>1.519658481515101</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.894806481745374</v>
@@ -6453,7 +6405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503284180617516</v>
+        <v>1.518730652096954</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.890928697404905</v>
@@ -6542,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.50239982187055</v>
+        <v>1.517995468782479</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.882746132670135</v>
@@ -6631,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.502511119137931</v>
+        <v>1.519702669751813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.895233656769982</v>
@@ -6720,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.507363822682259</v>
+        <v>1.522284176611671</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.892482248603694</v>
@@ -6809,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49556944037966</v>
+        <v>1.515266928955024</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.872157751308025</v>
@@ -6898,7 +6850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.501769252483006</v>
+        <v>1.520987011498829</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.877651326118952</v>
@@ -6987,7 +6939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50037165475404</v>
+        <v>1.516891683867419</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.864042477910666</v>
@@ -7076,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.491753744468377</v>
+        <v>1.507271231021685</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.852272186819302</v>
@@ -7165,7 +7117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.509965106153524</v>
+        <v>1.52377959930042</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.843648335487171</v>
@@ -7254,7 +7206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.515867203120028</v>
+        <v>1.528899027579911</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.863419148963797</v>
@@ -7343,7 +7295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.517502372965278</v>
+        <v>1.532206030630153</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.862579837725235</v>
@@ -7432,7 +7384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55314017476067</v>
+        <v>1.566533786525577</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.882810335830787</v>
@@ -7521,7 +7473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.557663744799604</v>
+        <v>1.569502412737234</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.760992353344262</v>
@@ -7610,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.732760500816028</v>
+        <v>1.738412575557861</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.531944227224336</v>
@@ -7699,7 +7651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.707698270096659</v>
+        <v>1.719522852961324</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.996633367269192</v>
@@ -7788,7 +7740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.720338033144632</v>
+        <v>1.730986904627339</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.912889285470641</v>
@@ -7877,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.716165699160925</v>
+        <v>1.724157893685897</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.732621233992667</v>
@@ -7966,7 +7918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.717258941275748</v>
+        <v>1.726965442565885</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.875059928236799</v>
@@ -8055,7 +8007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.706321755351703</v>
+        <v>1.717511745034809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.614670646619433</v>
@@ -8144,7 +8096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62564592715576</v>
+        <v>1.648317613453367</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.273611810730834</v>
@@ -8233,7 +8185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.626343528089377</v>
+        <v>1.652418124083503</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.33730382661046</v>
@@ -8322,7 +8274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.62686228688884</v>
+        <v>1.653674417272433</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.31941868442633</v>
@@ -8411,7 +8363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.631981721468781</v>
+        <v>1.65807069988567</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.337516113095113</v>
@@ -8500,7 +8452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.637528280290376</v>
+        <v>1.666738465824515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.347047607057858</v>
@@ -8589,7 +8541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598028420629733</v>
+        <v>1.62736412538061</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.360590331645333</v>
@@ -8678,7 +8630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.593608623127678</v>
+        <v>1.625782420013754</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.354988261470462</v>
@@ -8767,7 +8719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597272833245974</v>
+        <v>1.627566873194934</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.100742753152133</v>
@@ -8856,7 +8808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.612963902421794</v>
+        <v>1.641810404766991</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.300882984434871</v>
@@ -8945,7 +8897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.611095741051822</v>
+        <v>1.63757688769329</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.317015306632067</v>
@@ -9034,7 +8986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636014641607324</v>
+        <v>1.661445368190499</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.35705129915242</v>
@@ -9123,7 +9075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.641130840324065</v>
+        <v>1.66641421029764</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.307955145848924</v>
@@ -9212,7 +9164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627187878472101</v>
+        <v>1.649497810894872</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.29603031713577</v>
@@ -9301,7 +9253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617085567323169</v>
+        <v>1.634182213106208</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.346739623844948</v>
@@ -9390,7 +9342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632974550758359</v>
+        <v>1.643025591125645</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.065130952823518</v>
@@ -9479,7 +9431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715614481547006</v>
+        <v>1.719162286156971</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.545664580387816</v>
@@ -9568,7 +9520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.716688980821415</v>
+        <v>1.715699962220777</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.617703390641488</v>
@@ -9657,7 +9609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.675740148714469</v>
+        <v>1.678678325281756</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.446634847271598</v>
@@ -9746,7 +9698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67692551511238</v>
+        <v>1.682396632722636</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.554831220392404</v>
@@ -10032,7 +9984,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.652969223492638</v>
+        <v>1.634910154969217</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.789481216677846</v>
@@ -10121,7 +10073,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.651175725095096</v>
+        <v>1.632305580852319</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.593372575409296</v>
@@ -10210,7 +10162,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635189553484175</v>
+        <v>1.615320593146534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.797447145623352</v>
@@ -10299,7 +10251,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620038892756228</v>
+        <v>1.602736170726881</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.502943152006689</v>
@@ -10388,7 +10340,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618954696402094</v>
+        <v>1.605797178287276</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.662861445575256</v>
@@ -10477,7 +10429,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616063120726525</v>
+        <v>1.603237246591481</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.633406555959242</v>
@@ -10566,7 +10518,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.622045982358653</v>
+        <v>1.611597368849364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.668106316094545</v>
@@ -10655,7 +10607,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622667999712592</v>
+        <v>1.616038751249726</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.601297288321523</v>
@@ -10744,7 +10696,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665923169856512</v>
+        <v>1.663693153782357</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.609767214231826</v>
@@ -10833,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66230484296554</v>
+        <v>1.662303351360001</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.588753085116219</v>
@@ -10922,7 +10874,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501606593873478</v>
+        <v>1.505476929068501</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.598666510773815</v>
@@ -11011,7 +10963,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.186134600320696</v>
+        <v>1.179811222372654</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.351457087562651</v>
@@ -11100,7 +11052,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.172904928550109</v>
+        <v>1.16719712487418</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.358809334859233</v>
@@ -11189,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.170546221522184</v>
+        <v>1.164694053293249</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.358925049160896</v>
@@ -11278,7 +11230,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.173381065826009</v>
+        <v>1.168122426232657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.361232594574571</v>
@@ -11367,7 +11319,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.174820629861246</v>
+        <v>1.169003311891322</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.360531783726441</v>
@@ -11456,7 +11408,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.174802159977995</v>
+        <v>1.168918935112613</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.36141435877546</v>
@@ -11545,7 +11497,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.174858819953933</v>
+        <v>1.168642006287459</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.356653123810036</v>
@@ -11634,7 +11586,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.175477016860109</v>
+        <v>1.169803482129099</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.356404291639602</v>
@@ -11723,7 +11675,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.177324580783258</v>
+        <v>1.171305169119423</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.356843051131744</v>
@@ -11812,7 +11764,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.177335980634927</v>
+        <v>1.170387850888004</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.357547127318337</v>
@@ -11901,7 +11853,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.175324882425802</v>
+        <v>1.167583684018708</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.356025409366077</v>
@@ -11990,7 +11942,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.174062925069836</v>
+        <v>1.166044553058766</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.355274150957214</v>
@@ -12079,7 +12031,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.171976862557191</v>
+        <v>1.164000146505089</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.356473617053248</v>
@@ -12168,7 +12120,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.172327296545547</v>
+        <v>1.163421147409627</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.350647336610716</v>
@@ -12257,7 +12209,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.195044970834027</v>
+        <v>1.184853531046747</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.357247086391043</v>
@@ -12346,7 +12298,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581576136427525</v>
+        <v>1.577664688783753</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.750081768124723</v>
@@ -12435,7 +12387,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.696969400785127</v>
+        <v>1.667547768008412</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.927947424390825</v>
@@ -12524,7 +12476,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.694929574713962</v>
+        <v>1.667831779541461</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.439819186153891</v>
@@ -12613,7 +12565,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693579864545514</v>
+        <v>1.669139267502186</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.242976522639977</v>
@@ -12702,7 +12654,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.68458925381227</v>
+        <v>1.66120248399244</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.458771998750577</v>
@@ -12791,7 +12743,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684680009146456</v>
+        <v>1.661380950025689</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.521981099046678</v>
@@ -12880,7 +12832,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.566345413732248</v>
+        <v>1.565994073593643</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.042390600901174</v>
@@ -12969,7 +12921,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.548142173741131</v>
+        <v>1.549842506404922</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.060826850112244</v>
@@ -13058,7 +13010,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549800261724084</v>
+        <v>1.553789425598073</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.067096599383601</v>
@@ -13147,7 +13099,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551834964803647</v>
+        <v>1.557232125418116</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.065156622676056</v>
@@ -13236,7 +13188,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.567653505134357</v>
+        <v>1.574069219696873</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.059326706529892</v>
@@ -13325,7 +13277,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.562465945723823</v>
+        <v>1.571191160612432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.070641775091066</v>
@@ -13414,7 +13366,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565525303819146</v>
+        <v>1.57148299030886</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.088600024970764</v>
@@ -13503,7 +13455,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.564728987966015</v>
+        <v>1.573346759783964</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.049111380276254</v>
@@ -13592,7 +13544,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563295870676792</v>
+        <v>1.569502087719739</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.065797633105819</v>
@@ -13681,7 +13633,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.565018778312936</v>
+        <v>1.568896368705223</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.047285326250036</v>
@@ -13770,7 +13722,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568770803964844</v>
+        <v>1.576633799171021</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.073687553115108</v>
@@ -13859,7 +13811,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572816623983381</v>
+        <v>1.578147240550193</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.06874175026145</v>
@@ -13948,7 +13900,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567215496563088</v>
+        <v>1.569804176546798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.04618060318812</v>
@@ -14037,7 +13989,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.550555110846691</v>
+        <v>1.560344332374284</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.08007185322273</v>
@@ -14126,7 +14078,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575428043519729</v>
+        <v>1.572449832630818</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.869910802117449</v>
@@ -14215,7 +14167,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.69167751682347</v>
+        <v>1.674213493590045</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.661054997825293</v>
@@ -14304,7 +14256,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.71190042424698</v>
+        <v>1.687250491055488</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.183312304589473</v>
@@ -14393,7 +14345,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.688101170194471</v>
+        <v>1.667213131608922</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.155795918808433</v>
@@ -14482,7 +14434,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.692452700698389</v>
+        <v>1.665671390817395</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.136178546243787</v>
@@ -14768,7 +14720,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.710877404077965</v>
+        <v>1.683566612726023</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.121537986984842</v>
@@ -14857,7 +14809,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.719272748720444</v>
+        <v>1.689338375396847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.787582681179832</v>
@@ -14946,7 +14898,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.727288215807719</v>
+        <v>1.69697714098533</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.009228473764666</v>
@@ -15035,7 +14987,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.726657266576372</v>
+        <v>1.698959794247823</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.815388392809405</v>
@@ -15124,7 +15076,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741162885480043</v>
+        <v>1.713579383918945</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.733333223502783</v>
@@ -15213,7 +15165,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.754837943127286</v>
+        <v>1.720349834158038</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.937751663561264</v>
@@ -15302,7 +15254,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.749559311000665</v>
+        <v>1.712714265809548</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.995598461275683</v>
@@ -15391,7 +15343,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.753127891253022</v>
+        <v>1.722474858418657</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.105454766328215</v>
@@ -15480,7 +15432,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.782342183210669</v>
+        <v>1.750854785978032</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.98868231858869</v>
@@ -15569,7 +15521,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.773562771530407</v>
+        <v>1.741578965961306</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.690922987370449</v>
@@ -15658,7 +15610,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.707301594802672</v>
+        <v>1.692686919407835</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.266148297421681</v>
@@ -15747,7 +15699,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.413836323298001</v>
+        <v>1.419930014985495</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.536984608584779</v>
@@ -15836,7 +15788,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.404618983433634</v>
+        <v>1.411560750755555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.541787993775731</v>
@@ -15925,7 +15877,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.39841455820589</v>
+        <v>1.405293008881116</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.5433980594867</v>
@@ -16014,7 +15966,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402198245854705</v>
+        <v>1.412285524312664</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.551250188704747</v>
@@ -16103,7 +16055,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40213465528308</v>
+        <v>1.413732024095925</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.554191939169455</v>
@@ -16192,7 +16144,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.403477167136824</v>
+        <v>1.416229415246782</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.552214685973901</v>
@@ -16281,7 +16233,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.400030730363767</v>
+        <v>1.413188295735235</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.544264344144974</v>
@@ -16370,7 +16322,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.40433732463173</v>
+        <v>1.415918127179255</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.545610628879118</v>
@@ -16459,7 +16411,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.402400482031404</v>
+        <v>1.411355631910909</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.538721600497804</v>
@@ -16548,7 +16500,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.397381923979731</v>
+        <v>1.404072125682592</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.542883215647686</v>
@@ -16637,7 +16589,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.398949231691205</v>
+        <v>1.404972822948169</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.539819284117074</v>
@@ -16726,7 +16678,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.397420781172031</v>
+        <v>1.403275567133749</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.537311858864338</v>
@@ -16815,7 +16767,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.395560189744721</v>
+        <v>1.39932349987176</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.535943769903317</v>
@@ -16904,7 +16856,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.404440608814139</v>
+        <v>1.409183737157935</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.531782367024866</v>
@@ -16993,7 +16945,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.42847478098601</v>
+        <v>1.426744491126054</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.581930431973939</v>
@@ -17082,7 +17034,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744927737557569</v>
+        <v>1.713993324142851</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.587261954469104</v>
@@ -17171,7 +17123,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.765130752677808</v>
+        <v>1.730937814126046</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.960454727168008</v>
@@ -17260,7 +17212,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.784828399485528</v>
+        <v>1.742361942212505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.852437043938471</v>
@@ -17349,7 +17301,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.783052353465637</v>
+        <v>1.732636241533201</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.630593498592685</v>
@@ -17438,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.771690757803697</v>
+        <v>1.719707346645446</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.363897566630266</v>
@@ -17527,7 +17479,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.74832671325435</v>
+        <v>1.698079043602084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.523894721891226</v>
@@ -17616,7 +17568,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.632249614736897</v>
+        <v>1.6074359768059</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.153803463308059</v>
@@ -17705,7 +17657,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.617285619725936</v>
+        <v>1.598960266182752</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.184852447173723</v>
@@ -17794,7 +17746,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612796979983259</v>
+        <v>1.597926581126338</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.210437698816397</v>
@@ -17883,7 +17835,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614713888962312</v>
+        <v>1.607821367353131</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.178048180029277</v>
@@ -17972,7 +17924,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.623751317396211</v>
+        <v>1.616935957754634</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.21087605549292</v>
@@ -18061,7 +18013,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622349300489335</v>
+        <v>1.616255457589281</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.195081401855973</v>
@@ -18150,7 +18102,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615817502883107</v>
+        <v>1.608870005309739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.189401719067964</v>
@@ -18239,7 +18191,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615023682811505</v>
+        <v>1.60110148379577</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.138839393359685</v>
@@ -18328,7 +18280,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.617284569371566</v>
+        <v>1.605006413932597</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.147332267363096</v>
@@ -18417,7 +18369,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610962593466094</v>
+        <v>1.600999017484573</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.205932948648119</v>
@@ -18506,7 +18458,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.612201571673152</v>
+        <v>1.603359281699494</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.16384928370672</v>
@@ -18595,7 +18547,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612461465717144</v>
+        <v>1.60279860179985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.15609499428965</v>
@@ -18684,7 +18636,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.619924940515843</v>
+        <v>1.609921421721007</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.20576814032438</v>
@@ -18773,7 +18725,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609869527587994</v>
+        <v>1.600450115204748</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.197024409269589</v>
@@ -18862,7 +18814,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635119182803149</v>
+        <v>1.614720149055961</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.950129652865593</v>
@@ -18951,7 +18903,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.747471767979252</v>
+        <v>1.708828352787987</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.061233392866684</v>
@@ -19040,7 +18992,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.758947507526751</v>
+        <v>1.712116966843086</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.986214977676366</v>
@@ -19129,7 +19081,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.766722378209435</v>
+        <v>1.717598821976248</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.355806205667242</v>
@@ -19218,7 +19170,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.771958338225336</v>
+        <v>1.71979967836047</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.283557781526196</v>
@@ -19504,7 +19456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.675917547130886</v>
+        <v>1.642114583077463</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.247502776166183</v>
@@ -19593,7 +19545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.681629026001063</v>
+        <v>1.644483950425673</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.097084960249146</v>
@@ -19682,7 +19634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.685336993883979</v>
+        <v>1.643177611679951</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.269137900586859</v>
@@ -19771,7 +19723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.674930795755831</v>
+        <v>1.633524516887795</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.127130566168854</v>
@@ -19860,7 +19812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.683337324311458</v>
+        <v>1.641602890169006</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.246690571869889</v>
@@ -19949,7 +19901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.692862686921823</v>
+        <v>1.649404601897471</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.234294767108466</v>
@@ -20038,7 +19990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682137312306365</v>
+        <v>1.644257801665729</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.160084653907177</v>
@@ -20127,7 +20079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.682655050133965</v>
+        <v>1.644305262143098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.396642182281617</v>
@@ -20216,7 +20168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698230072448001</v>
+        <v>1.654853839741035</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.752130538060396</v>
@@ -20305,7 +20257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.698692022122068</v>
+        <v>1.657100544798378</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.801213371467851</v>
@@ -20394,7 +20346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.645087913937294</v>
+        <v>1.614764724371131</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.153572780888118</v>
@@ -20483,7 +20435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.396529283055149</v>
+        <v>1.387163734117015</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.537451449412442</v>
@@ -20572,7 +20524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.374023170882032</v>
+        <v>1.366533958713182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.553860869048985</v>
@@ -20661,7 +20613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.363652018213863</v>
+        <v>1.355177553295029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.548786779187</v>
@@ -20750,7 +20702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.366153354925439</v>
+        <v>1.358032420282505</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.560389118101819</v>
@@ -20839,7 +20791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.371152765114421</v>
+        <v>1.362313321760167</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.557124068544905</v>
@@ -20928,7 +20880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.372090149336022</v>
+        <v>1.365913662403776</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.558220377252331</v>
@@ -21017,7 +20969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.370989624099096</v>
+        <v>1.365019897964163</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.548800676320013</v>
@@ -21106,7 +21058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.373865959637274</v>
+        <v>1.36833872863186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.550168895403554</v>
@@ -21195,7 +21147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.377345180168486</v>
+        <v>1.3742697578343</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.556945514901744</v>
@@ -21284,7 +21236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.377593241038182</v>
+        <v>1.372504735366127</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.559229324770821</v>
@@ -21373,7 +21325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.38289991045045</v>
+        <v>1.375150413451277</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.55058821897777</v>
@@ -21462,7 +21414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.382483545963572</v>
+        <v>1.373094256782859</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.558268133700375</v>
@@ -21551,7 +21503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.387829251329001</v>
+        <v>1.383100928545812</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.569259467378452</v>
@@ -21640,7 +21592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.387904364449573</v>
+        <v>1.381163449179365</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.548425553844926</v>
@@ -21729,7 +21681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.413292378427565</v>
+        <v>1.397963062802229</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.596390507879035</v>
@@ -21818,7 +21770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.674054087224534</v>
+        <v>1.624038166585554</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.125977683555967</v>
@@ -21907,7 +21859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732076203056449</v>
+        <v>1.674844397205388</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.694973956481839</v>
@@ -21996,7 +21948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.751962228732196</v>
+        <v>1.691666907990908</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.559484250937622</v>
@@ -22085,7 +22037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.759651118719653</v>
+        <v>1.697052307225112</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.639765696932109</v>
@@ -22174,7 +22126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.748336703446315</v>
+        <v>1.68263297914554</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.634668061426191</v>
@@ -22263,7 +22215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.731315693518566</v>
+        <v>1.671872722837439</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.36246409298697</v>
@@ -22352,7 +22304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615663479006329</v>
+        <v>1.582051931071673</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.21203952899753</v>
@@ -22441,7 +22393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608480789222449</v>
+        <v>1.579160112265433</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.200513290390664</v>
@@ -22530,7 +22482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605805466791996</v>
+        <v>1.576264524539715</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.219090978174922</v>
@@ -22619,7 +22571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601990342660973</v>
+        <v>1.570677167822429</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.223108985875783</v>
@@ -22708,7 +22660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603059626754038</v>
+        <v>1.567897186976028</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.222050578061433</v>
@@ -22797,7 +22749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609461135959336</v>
+        <v>1.575997062169568</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.235133490386639</v>
@@ -22886,7 +22838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.59640483327416</v>
+        <v>1.561443842810212</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.212082565337546</v>
@@ -22975,7 +22927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597016254790582</v>
+        <v>1.563959983063045</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.200322910148041</v>
@@ -23064,7 +23016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597310569996803</v>
+        <v>1.567356109667348</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.189566623849514</v>
@@ -23153,7 +23105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.599964427901464</v>
+        <v>1.572943560605606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.218545551479554</v>
@@ -23242,7 +23194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595001968029237</v>
+        <v>1.566982201165378</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.198730037391906</v>
@@ -23331,7 +23283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.599524829760026</v>
+        <v>1.567209133008733</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.184165406465402</v>
@@ -23420,7 +23372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.595319997045465</v>
+        <v>1.565589432539188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.230170567974774</v>
@@ -23509,7 +23461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605538712399509</v>
+        <v>1.577490169851345</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.257089688212323</v>
@@ -23598,7 +23550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.63465963783727</v>
+        <v>1.598153511140027</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.954813340280466</v>
@@ -23687,7 +23639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.732749233520167</v>
+        <v>1.675736502560084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.392956055159884</v>
@@ -23776,7 +23728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734731430823986</v>
+        <v>1.672208453455864</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.927010542134362</v>
@@ -23865,7 +23817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.733178507755968</v>
+        <v>1.671640535300176</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.377588407780246</v>
@@ -23954,7 +23906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.728364792426587</v>
+        <v>1.670039558839598</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.732166091529408</v>
@@ -24240,7 +24192,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606262136017732</v>
+        <v>1.572138802385211</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.078033748103522</v>
@@ -24329,7 +24281,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.613386069473818</v>
+        <v>1.577795536371878</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.596442576174769</v>
@@ -24418,7 +24370,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605949214006846</v>
+        <v>1.571617398988443</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.064701221742086</v>
@@ -24507,7 +24459,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599251177007529</v>
+        <v>1.570487746109742</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.498162443631054</v>
@@ -24596,7 +24548,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.600175832927794</v>
+        <v>1.56943221961354</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.777290007760667</v>
@@ -24685,7 +24637,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.609893280388162</v>
+        <v>1.576418860723962</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.569349265941696</v>
@@ -24774,7 +24726,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609369494767301</v>
+        <v>1.576017696024804</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.766245511203601</v>
@@ -24863,7 +24815,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622725927296653</v>
+        <v>1.585844937934319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.656444010657719</v>
@@ -24952,7 +24904,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639160445652125</v>
+        <v>1.605462622449203</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.634712853545403</v>
@@ -25041,7 +24993,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.649751087481997</v>
+        <v>1.616329627985385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.611555259409235</v>
@@ -25130,7 +25082,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625550627358676</v>
+        <v>1.600610246535183</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.279539781467005</v>
@@ -25219,7 +25171,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.396031993453584</v>
+        <v>1.386826129351745</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.562761182174149</v>
@@ -25308,7 +25260,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.381726715050597</v>
+        <v>1.376172308367959</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.566024288575613</v>
@@ -25397,7 +25349,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.374739129912771</v>
+        <v>1.368812668599046</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.561025059865671</v>
@@ -25486,7 +25438,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.374165663493761</v>
+        <v>1.369659316984045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.559380310693091</v>
@@ -25575,7 +25527,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.373521017588704</v>
+        <v>1.369976710369759</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.567318280670989</v>
@@ -25664,7 +25616,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.372932114388222</v>
+        <v>1.368125963212653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.567066111600275</v>
@@ -25753,7 +25705,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.379219715665669</v>
+        <v>1.372787561870124</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.545272538508146</v>
@@ -25842,7 +25794,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.385316321523623</v>
+        <v>1.376811624510405</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.545981827183385</v>
@@ -25931,7 +25883,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.385149863859377</v>
+        <v>1.374736292302538</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.547869532485894</v>
@@ -26020,7 +25972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.378303959788129</v>
+        <v>1.369119877078123</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.551882979133564</v>
@@ -26109,7 +26061,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.37722502440133</v>
+        <v>1.366508440218869</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.543766050129088</v>
@@ -26198,7 +26150,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.36752681145674</v>
+        <v>1.360602675873442</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.535737844911174</v>
@@ -26287,7 +26239,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.36623659409395</v>
+        <v>1.360215641352765</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.546976937603362</v>
@@ -26376,7 +26328,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.359703099253353</v>
+        <v>1.35385982418855</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.540871862823141</v>
@@ -26465,7 +26417,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.371411658172591</v>
+        <v>1.36008701929951</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.59179662795964</v>
@@ -26554,7 +26506,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594280230109722</v>
+        <v>1.570264018896814</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.273688545310651</v>
@@ -26643,7 +26595,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625476489461912</v>
+        <v>1.594355688320432</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.169840167337653</v>
@@ -26732,7 +26684,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.633444991794466</v>
+        <v>1.607856654693745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.213063068980402</v>
@@ -26821,7 +26773,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.623815636928131</v>
+        <v>1.599577844047994</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.472949918329983</v>
@@ -26910,7 +26862,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.608239051043856</v>
+        <v>1.586886307595712</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.774895094864632</v>
@@ -26999,7 +26951,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.514148509514449</v>
+        <v>1.501717342127292</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.747522453939713</v>
@@ -27088,7 +27040,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.263066216939238</v>
+        <v>1.253636357277404</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.455328495025047</v>
@@ -27177,7 +27129,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.222885031561056</v>
+        <v>1.216629995970892</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.461542058527596</v>
@@ -27266,7 +27218,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.227369214890528</v>
+        <v>1.223937310881222</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.467094457921726</v>
@@ -27355,7 +27307,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.230278209121497</v>
+        <v>1.226617578609864</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.464009403411404</v>
@@ -27444,7 +27396,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.232245214957004</v>
+        <v>1.228640798479905</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.464648409218343</v>
@@ -27533,7 +27485,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.233502185110151</v>
+        <v>1.230075240078903</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.469625600757549</v>
@@ -27622,7 +27574,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.235058348403198</v>
+        <v>1.230024871397084</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.468913241247703</v>
@@ -27711,7 +27663,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.235144208541207</v>
+        <v>1.230193604209172</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.466224822673553</v>
@@ -27800,7 +27752,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.233559483200449</v>
+        <v>1.22865803267263</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.464231438775971</v>
@@ -27889,7 +27841,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.232276406938213</v>
+        <v>1.227184564506526</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.46736074782032</v>
@@ -27978,7 +27930,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.233205020461176</v>
+        <v>1.226721033879445</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.466193755787021</v>
@@ -28067,7 +28019,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.233360337496293</v>
+        <v>1.226156384083746</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.464196555994514</v>
@@ -28156,7 +28108,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.236110914137915</v>
+        <v>1.228430201023113</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.466934778872547</v>
@@ -28245,7 +28197,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.233523413606981</v>
+        <v>1.22416487225928</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.456766741829886</v>
@@ -28334,7 +28286,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.279718139622315</v>
+        <v>1.262903021613506</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.425110606117002</v>
@@ -28423,7 +28375,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.578381074879176</v>
+        <v>1.552332332037808</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.729914983281949</v>
@@ -28512,7 +28464,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63464035454503</v>
+        <v>1.600635154481441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.671747191347248</v>
@@ -28601,7 +28553,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630858706409077</v>
+        <v>1.594184434190923</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.008148856684009</v>
@@ -28690,7 +28642,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636297677804301</v>
+        <v>1.602406467567065</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.114971146586541</v>
@@ -28976,7 +28928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.561923827940031</v>
+        <v>1.55857674974256</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.650188273808065</v>
@@ -29065,7 +29017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.59539062765376</v>
+        <v>1.592089321884089</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.447927940763349</v>
@@ -29154,7 +29106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.602021697188211</v>
+        <v>1.599791141061662</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.563289134619849</v>
@@ -29243,7 +29195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.590156313189474</v>
+        <v>1.593044527794544</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.638620343610943</v>
@@ -29332,7 +29284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.628501694086784</v>
+        <v>1.628899133132438</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.452406833136792</v>
@@ -29421,7 +29373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.66129344800934</v>
+        <v>1.657388658043633</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.979683397828148</v>
@@ -29510,7 +29462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653663847221544</v>
+        <v>1.650251857054982</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.096140817035476</v>
@@ -29599,7 +29551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.64918547868432</v>
+        <v>1.650223666889136</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.90603280519453</v>
@@ -29688,7 +29640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657640269679407</v>
+        <v>1.657583227265481</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.065514414742803</v>
@@ -29777,7 +29729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622967494861149</v>
+        <v>1.631065159997353</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.529034812052115</v>
@@ -29866,7 +29818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594056733759517</v>
+        <v>1.606882078916502</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.130685215015397</v>
@@ -29955,7 +29907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.399151118296763</v>
+        <v>1.411397703385149</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.589807707239858</v>
@@ -30044,7 +29996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.378883247337051</v>
+        <v>1.392463562272412</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.596036945169816</v>
@@ -30133,7 +30085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.3750556231871</v>
+        <v>1.388563050061472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.593269062739528</v>
@@ -30222,7 +30174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372707054197511</v>
+        <v>1.383393885535543</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.59763301335842</v>
@@ -30311,7 +30263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.378049683793072</v>
+        <v>1.388001586223047</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.599773499595233</v>
@@ -30400,7 +30352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.381767685019975</v>
+        <v>1.389437012955542</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.604328712497462</v>
@@ -30489,7 +30441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.384772307272343</v>
+        <v>1.391875207277306</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.580836773479544</v>
@@ -30578,7 +30530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.38783266858189</v>
+        <v>1.39155092809062</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.591616540936838</v>
@@ -30667,7 +30619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.386794786185773</v>
+        <v>1.387927448102245</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.593659373693994</v>
@@ -30756,7 +30708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.381910499279355</v>
+        <v>1.380408975338528</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.588480325130161</v>
@@ -30845,7 +30797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.384683236419866</v>
+        <v>1.384370116100259</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.5943990962652</v>
@@ -30934,7 +30886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.382744817282656</v>
+        <v>1.383266165659545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.586779930111377</v>
@@ -31023,7 +30975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.380111508493449</v>
+        <v>1.381852508431525</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.589622615618609</v>
@@ -31112,7 +31064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.393197501787025</v>
+        <v>1.387434662607802</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.572761801504921</v>
@@ -31201,7 +31153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.408554232065499</v>
+        <v>1.399247281347868</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.62772194214437</v>
@@ -31290,7 +31242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.611742163472611</v>
+        <v>1.591483052296275</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.494488279650835</v>
@@ -31379,7 +31331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624571248988499</v>
+        <v>1.603702172664576</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.130740970132582</v>
@@ -31468,7 +31420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622532274626998</v>
+        <v>1.597169961340069</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.174015277570005</v>
@@ -31557,7 +31509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.620006110289332</v>
+        <v>1.595259461371212</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.824913038430759</v>
@@ -31646,7 +31598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605621059396544</v>
+        <v>1.588157742345425</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.986590104183534</v>
@@ -31735,7 +31687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.60148773796273</v>
+        <v>1.588564608249291</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.429691330759424</v>
@@ -31824,7 +31776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525014305204878</v>
+        <v>1.525489312408179</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.255413670682779</v>
@@ -31913,7 +31865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520710082665462</v>
+        <v>1.524650845016694</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.281813865261702</v>
@@ -32002,7 +31954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.513493672638566</v>
+        <v>1.524818880503494</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.299183684028583</v>
@@ -32091,7 +32043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524073517132278</v>
+        <v>1.535762713181561</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.302932457973322</v>
@@ -32180,7 +32132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530836369941452</v>
+        <v>1.540569017435284</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.307493451822677</v>
@@ -32269,7 +32221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.520204753871536</v>
+        <v>1.527129626250953</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.232029778409561</v>
@@ -32358,7 +32310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.525618718247316</v>
+        <v>1.53131021467676</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.308326042918246</v>
@@ -32447,7 +32399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533694542808464</v>
+        <v>1.540586369854468</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.18667219967703</v>
@@ -32536,7 +32488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545264710752055</v>
+        <v>1.548898127064783</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.221339311299388</v>
@@ -32625,7 +32577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548635263226289</v>
+        <v>1.554419617792471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.385806963001247</v>
@@ -32714,7 +32666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558805069593976</v>
+        <v>1.56528358692399</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.314572423934084</v>
@@ -32803,7 +32755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572397374576179</v>
+        <v>1.581694078626807</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.276744068614476</v>
@@ -32892,7 +32844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.56794419991737</v>
+        <v>1.581461589951883</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.277643672938728</v>
@@ -32981,7 +32933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574971178857439</v>
+        <v>1.584588606168222</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.34566969436256</v>
@@ -33070,7 +33022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596545474393074</v>
+        <v>1.596455195800066</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.016541307812509</v>
@@ -33159,7 +33111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.68339941835231</v>
+        <v>1.671575839703008</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.769371432119882</v>
@@ -33248,7 +33200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.702966332101088</v>
+        <v>1.683354113647962</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.004776594233025</v>
@@ -33337,7 +33289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.68155934649163</v>
+        <v>1.662777356893478</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.828889303840886</v>
@@ -33426,7 +33378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.671407353602326</v>
+        <v>1.657901054681958</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.008121634976683</v>
